--- a/migforecasting/underground/tests on superdataset/test-11.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-11.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Random Forest-100 (superdataset-21.csv without cons)</t>
   </si>
@@ -98,12 +98,27 @@
   <si>
     <t>superdataset-22</t>
   </si>
+  <si>
+    <t>абс. отклонение</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>avg train</t>
+  </si>
+  <si>
+    <t>avg test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +144,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,6 +187,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -177,6 +231,2108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>superdataset-21</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$P$5:$P$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>funds</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$Q$5:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>9.7421017871923893E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0408029075848753E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0259722042257217E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1331178137748411E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5441658480808512E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4601978777767655E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2492120447734051E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.10115954577752E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9835032684878981E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7231794503392645E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.770012866116066E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10487076738372771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5648908105633988E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6104788585839452E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.964423163043982E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4972667896502611E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1024380256560299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE61-4B1D-9F3F-D477675EE4DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>superdataset-22 (without outliers)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$P$5:$P$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>popsize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>funds</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>beforeschool</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$R$5:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>6.1841597657377997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7613774919924988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8456708216667356E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3556924251250032E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4460405011869793E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.154711877099716E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.031963369835777E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9227232784436491E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7254873804996418E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9567815722839262E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5047100801616714E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0224587891088988E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1828788540933347E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.348185871844884E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4267191819080235E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1492282342476827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2076153142431948E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE61-4B1D-9F3F-D477675EE4DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="402704063"/>
+        <c:axId val="402704479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="402704063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402704479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402704479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="402704063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mae!$K$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$L$60:$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>superdataset-21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>superdataset-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$L$61:$M$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53.942284254947616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.707424686716795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F69-43D7-A98F-65C1D5D3D61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mae!$K$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$L$60:$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>superdataset-21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>superdataset-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$L$62:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>142.4843136707388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.015704010025061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F69-43D7-A98F-65C1D5D3D61A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="399997759"/>
+        <c:axId val="399993183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="399997759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399993183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399993183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="399997759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:R57"/>
+  <dimension ref="C3:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,11 +2611,14 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +2628,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -493,16 +2652,22 @@
       <c r="R4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>53.738101629913707</v>
+        <v>54.310784342258437</v>
       </c>
       <c r="E5" s="3">
-        <v>149.63628696604599</v>
+        <v>140.4361314717859</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -513,23 +2678,34 @@
       <c r="J5" s="3">
         <v>71.240025062656656</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="3">
+      <c r="Q5" s="8">
+        <v>9.7421017871923893E-2</v>
+      </c>
+      <c r="R5" s="8">
         <v>6.1841597657377997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="5">
+        <f>ABS(Q5-R5)</f>
+        <v>3.5579420214545895E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <f>(Q5/R5-1) * 100</f>
+        <v>57.533151733348056</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>53.541086152581833</v>
+        <v>54.099017753201402</v>
       </c>
       <c r="E6" s="3">
-        <v>155.15138554216861</v>
+        <v>140.8309482257126</v>
       </c>
       <c r="H6" s="2">
         <f>H5+1</f>
@@ -544,23 +2720,34 @@
       <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="Q6" s="3">
+        <v>6.0408029075848753E-2</v>
+      </c>
       <c r="R6" s="3">
         <v>4.7613774919924988E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="6">
+        <f t="shared" ref="S6:S21" si="0">ABS(Q6-R6)</f>
+        <v>1.2794254155923765E-2</v>
+      </c>
+      <c r="T6" s="9">
+        <f>(Q6/R6-1) * 100</f>
+        <v>26.870909054030378</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <f t="shared" ref="C7:C54" si="1">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>54.689241199835642</v>
+        <v>52.86971915017461</v>
       </c>
       <c r="E7" s="3">
-        <v>143.13598028477551</v>
+        <v>139.84709714950549</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7:H54" si="1">H6+1</f>
+        <f t="shared" ref="H7:H54" si="2">H6+1</f>
         <v>3</v>
       </c>
       <c r="I7" s="3">
@@ -572,23 +2759,34 @@
       <c r="P7" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="Q7" s="3">
+        <v>8.0259722042257217E-2</v>
+      </c>
       <c r="R7" s="3">
         <v>6.8456708216667356E-2</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1803013825589861E-2</v>
+      </c>
+      <c r="T7" s="9">
+        <f>(Q7/R7-1) * 100</f>
+        <v>17.241573737716109</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>55.263889878098887</v>
+        <v>53.570192083818377</v>
       </c>
       <c r="E8" s="3">
-        <v>147.5578587075575</v>
+        <v>147.9437754508435</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I8" s="3">
@@ -600,23 +2798,34 @@
       <c r="P8" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="Q8" s="3">
+        <v>3.1331178137748411E-2</v>
+      </c>
       <c r="R8" s="3">
         <v>4.3556924251250032E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.222574611350162E-2</v>
+      </c>
+      <c r="T8" s="9">
+        <f>(R8/Q8-1) * 100</f>
+        <v>39.021022636783023</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>54.32085330776605</v>
+        <v>53.459759895227002</v>
       </c>
       <c r="E9" s="3">
-        <v>150.0395071193866</v>
+        <v>141.97148923792901</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I9" s="3">
@@ -628,23 +2837,34 @@
       <c r="P9" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="Q9" s="3">
+        <v>3.5441658480808512E-2</v>
+      </c>
       <c r="R9" s="3">
         <v>5.4460405011869793E-2</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9018746531061281E-2</v>
+      </c>
+      <c r="T9" s="9">
+        <f>(R9/Q9-1) * 100</f>
+        <v>53.662123462308742</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>53.648561840843733</v>
+        <v>54.347965657741547</v>
       </c>
       <c r="E10" s="3">
-        <v>151.0301150054764</v>
+        <v>141.5629552065154</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I10" s="3">
@@ -656,23 +2876,34 @@
       <c r="P10" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="Q10" s="3">
+        <v>7.4601978777767655E-2</v>
+      </c>
       <c r="R10" s="3">
         <v>6.154711877099716E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3054860006770495E-2</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" ref="T10:T15" si="3">(Q10/R10-1) * 100</f>
+        <v>21.21116352390866</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" s="3">
-        <v>55.223594028215309</v>
+        <v>54.099396100116408</v>
       </c>
       <c r="E11" s="3">
-        <v>144.29275465498361</v>
+        <v>137.0469400814427</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I11" s="3">
@@ -684,23 +2915,34 @@
       <c r="P11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="Q11" s="3">
+        <v>7.2492120447734051E-2</v>
+      </c>
       <c r="R11" s="3">
         <v>5.031963369835777E-2</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2172486749376281E-2</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="3"/>
+        <v>44.063291243910442</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>56.055545815641693</v>
+        <v>53.894874854481969</v>
       </c>
       <c r="E12" s="3">
-        <v>144.4272289156626</v>
+        <v>150.04616637579991</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I12" s="3">
@@ -712,23 +2954,34 @@
       <c r="P12" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="Q12" s="3">
+        <v>5.10115954577752E-2</v>
+      </c>
       <c r="R12" s="3">
         <v>4.9227232784436491E-2</v>
       </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7843626733387088E-3</v>
+      </c>
+      <c r="T12" s="9">
+        <f>(R12/Q12-1) * 100</f>
+        <v>-3.4979550381162183</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>54.098357759211062</v>
+        <v>53.197523282887069</v>
       </c>
       <c r="E13" s="3">
-        <v>148.92030668127049</v>
+        <v>143.01047702152411</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I13" s="3">
@@ -740,23 +2993,34 @@
       <c r="P13" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q13" s="3">
+        <v>4.9835032684878981E-2</v>
+      </c>
       <c r="R13" s="3">
         <v>3.7254873804996418E-2</v>
       </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2580158879882564E-2</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="3"/>
+        <v>33.767820408494799</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>53.979420627311328</v>
+        <v>54.054909778812579</v>
       </c>
       <c r="E14" s="3">
-        <v>144.86430449068999</v>
+        <v>139.47208842350199</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I14" s="3">
@@ -768,23 +3032,34 @@
       <c r="P14" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="Q14" s="3">
+        <v>6.7231794503392645E-2</v>
+      </c>
       <c r="R14" s="3">
         <v>4.9567815722839262E-2</v>
       </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7663978780553383E-2</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="3"/>
+        <v>35.635983799089189</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>54.930138337214082</v>
+        <v>53.593156286379518</v>
       </c>
       <c r="E15" s="3">
-        <v>144.82167579408539</v>
+        <v>146.9731471785922</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I15" s="3">
@@ -793,26 +3068,37 @@
       <c r="J15" s="3">
         <v>73.929862155388477</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="8">
+        <v>3.770012866116066E-2</v>
+      </c>
+      <c r="R15" s="8">
         <v>6.5047100801616714E-2</v>
       </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7346972140456054E-2</v>
+      </c>
+      <c r="T15" s="8">
+        <f>(R15/Q15-1) * 100</f>
+        <v>72.53814008499495</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D16" s="3">
-        <v>54.679001506642933</v>
+        <v>54.681680733410943</v>
       </c>
       <c r="E16" s="3">
-        <v>149.10549288061341</v>
+        <v>135.0802850494473</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I16" s="3">
@@ -821,26 +3107,37 @@
       <c r="J16" s="3">
         <v>72.943746867167917</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="3">
+      <c r="Q16" s="8">
+        <v>0.10487076738372771</v>
+      </c>
+      <c r="R16" s="8">
         <v>5.0224587891088988E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4646179492638718E-2</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" ref="T16" si="4">(Q16/R16-1) * 100</f>
+        <v>108.80363938702268</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D17" s="3">
-        <v>54.275036296397751</v>
+        <v>54.361402793946453</v>
       </c>
       <c r="E17" s="3">
-        <v>148.91654983570649</v>
+        <v>136.7402792321117</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I17" s="3">
@@ -852,23 +3149,34 @@
       <c r="P17" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="Q17" s="3">
+        <v>3.5648908105633988E-2</v>
+      </c>
       <c r="R17" s="3">
         <v>5.1828788540933347E-2</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.617988043529936E-2</v>
+      </c>
+      <c r="T17" s="9">
+        <f>(R17/Q17-1) * 100</f>
+        <v>45.386748977992617</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D18" s="3">
-        <v>55.587652376386792</v>
+        <v>54.956391152502903</v>
       </c>
       <c r="E18" s="3">
-        <v>137.2727875136911</v>
+        <v>131.99592204770221</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I18" s="3">
@@ -880,23 +3188,34 @@
       <c r="P18" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="Q18" s="3">
+        <v>3.6104788585839452E-2</v>
+      </c>
       <c r="R18" s="3">
         <v>4.348185871844884E-2</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3770701326093882E-3</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" ref="T18:T20" si="5">(R18/Q18-1) * 100</f>
+        <v>20.432387008915278</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D19" s="3">
-        <v>54.572720175318452</v>
+        <v>54.227831781140857</v>
       </c>
       <c r="E19" s="3">
-        <v>150.0026286966046</v>
+        <v>146.53977894124489</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I19" s="3">
@@ -908,23 +3227,34 @@
       <c r="P19" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q19" s="3">
+        <v>3.964423163043982E-2</v>
+      </c>
       <c r="R19" s="3">
         <v>6.4267191819080235E-2</v>
       </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4622960188640415E-2</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="5"/>
+        <v>62.109818190382839</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D20" s="3">
-        <v>55.135577318175592</v>
+        <v>53.641040454016299</v>
       </c>
       <c r="E20" s="3">
-        <v>142.2148247535597</v>
+        <v>140.58477603257711</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I20" s="3">
@@ -933,26 +3263,37 @@
       <c r="J20" s="3">
         <v>74.214461152882194</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="11">
+        <v>5.4972667896502611E-2</v>
+      </c>
+      <c r="R20" s="11">
         <v>0.1492282342476827</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="12">
+        <f t="shared" si="0"/>
+        <v>9.4255566351180084E-2</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="5"/>
+        <v>171.45896307713434</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D21" s="3">
-        <v>56.103305026708661</v>
+        <v>53.686759313154838</v>
       </c>
       <c r="E21" s="3">
-        <v>137.2438225629792</v>
+        <v>150.24085514834201</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I21" s="3">
@@ -964,23 +3305,34 @@
       <c r="P21" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="Q21" s="3">
+        <v>7.1024380256560299E-2</v>
+      </c>
       <c r="R21" s="3">
         <v>5.2076153142431948E-2</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8948227114128351E-2</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" ref="T21" si="6">(Q21/R21-1) * 100</f>
+        <v>36.385612167441806</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D22" s="3">
-        <v>54.027246952472261</v>
+        <v>53.146538125727588</v>
       </c>
       <c r="E22" s="3">
-        <v>152.57814348302301</v>
+        <v>155.6734962187318</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I22" s="3">
@@ -990,19 +3342,19 @@
         <v>75.58984962406015</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D23" s="3">
-        <v>54.471531297082599</v>
+        <v>54.183140279394649</v>
       </c>
       <c r="E23" s="3">
-        <v>144.17922234392111</v>
+        <v>139.85722513088999</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I23" s="3">
@@ -1012,19 +3364,19 @@
         <v>72.467167919799508</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D24" s="3">
-        <v>54.502900972469533</v>
+        <v>53.457974388824212</v>
       </c>
       <c r="E24" s="3">
-        <v>148.42997261774369</v>
+        <v>148.10773705642819</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I24" s="3">
@@ -1034,19 +3386,19 @@
         <v>77.310814536340857</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D25" s="3">
-        <v>54.791131351869602</v>
+        <v>53.7906082654249</v>
       </c>
       <c r="E25" s="3">
-        <v>146.03740963855421</v>
+        <v>141.1882140779523</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I25" s="3">
@@ -1056,19 +3408,19 @@
         <v>71.24323308270678</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>54.756736063552943</v>
+        <v>53.935699941792791</v>
       </c>
       <c r="E26" s="3">
-        <v>145.6442661555312</v>
+        <v>137.74744618964519</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I26" s="3">
@@ -1078,19 +3430,19 @@
         <v>77.217994987468671</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>54.209411039583607</v>
+        <v>53.90171129220024</v>
       </c>
       <c r="E27" s="3">
-        <v>145.0289649507119</v>
+        <v>145.14378708551479</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I27" s="3">
@@ -1100,19 +3452,19 @@
         <v>75.414636591478697</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D28" s="3">
-        <v>55.295178742638001</v>
+        <v>53.460113504074513</v>
       </c>
       <c r="E28" s="3">
-        <v>136.14734939759029</v>
+        <v>146.68937172774869</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I28" s="3">
@@ -1122,19 +3474,19 @@
         <v>74.37144110275689</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D29" s="3">
-        <v>54.224766470346523</v>
+        <v>54.909541618160652</v>
       </c>
       <c r="E29" s="3">
-        <v>151.0955969331873</v>
+        <v>136.1290808609657</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I29" s="3">
@@ -1144,19 +3496,19 @@
         <v>74.389674185463633</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D30" s="3">
-        <v>54.310672510614992</v>
+        <v>54.446868451687997</v>
       </c>
       <c r="E30" s="3">
-        <v>141.89998904709751</v>
+        <v>137.72482257126231</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I30" s="3">
@@ -1166,19 +3518,19 @@
         <v>75.393095238095242</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D31" s="3">
-        <v>53.767460621832619</v>
+        <v>54.297855064027942</v>
       </c>
       <c r="E31" s="3">
-        <v>152.50776560788611</v>
+        <v>141.00896451425251</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I31" s="3">
@@ -1188,19 +3540,19 @@
         <v>75.596165413533825</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D32" s="3">
-        <v>54.553750171209423</v>
+        <v>55.135665017462173</v>
       </c>
       <c r="E32" s="3">
-        <v>141.51168674698789</v>
+        <v>140.53803955788251</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="I32" s="3">
@@ -1212,17 +3564,17 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D33" s="3">
-        <v>54.719635666347081</v>
+        <v>54.367917636786963</v>
       </c>
       <c r="E33" s="3">
-        <v>141.1243318729463</v>
+        <v>140.9155904595695</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="I33" s="3">
@@ -1234,17 +3586,17 @@
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D34" s="3">
-        <v>54.396527872894133</v>
+        <v>52.825062572759023</v>
       </c>
       <c r="E34" s="3">
-        <v>141.574282584885</v>
+        <v>152.14912739965101</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I34" s="3">
@@ -1256,17 +3608,17 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D35" s="3">
-        <v>54.684310368442667</v>
+        <v>54.012355937136213</v>
       </c>
       <c r="E35" s="3">
-        <v>146.70938116100771</v>
+        <v>140.04812681791739</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="I35" s="3">
@@ -1278,17 +3630,17 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D36" s="3">
-        <v>53.890987535953983</v>
+        <v>53.853133003492431</v>
       </c>
       <c r="E36" s="3">
-        <v>142.65382803943041</v>
+        <v>135.2553519488074</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I36" s="3">
@@ -1300,17 +3652,17 @@
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D37" s="3">
-        <v>54.056327900287627</v>
+        <v>54.041891734575088</v>
       </c>
       <c r="E37" s="3">
-        <v>146.14921686746979</v>
+        <v>144.77692262943569</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="I37" s="3">
@@ -1322,17 +3674,17 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D38" s="3">
-        <v>54.379254896589508</v>
+        <v>53.41079307334109</v>
       </c>
       <c r="E38" s="3">
-        <v>149.293587075575</v>
+        <v>145.0575043630017</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="I38" s="3">
@@ -1344,17 +3696,17 @@
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D39" s="3">
-        <v>54.591487467470209</v>
+        <v>54.499068684516878</v>
       </c>
       <c r="E39" s="3">
-        <v>143.4984501642935</v>
+        <v>138.13198371146021</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I39" s="3">
@@ -1366,17 +3718,17 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>54.169628817970143</v>
+        <v>54.039601280558777</v>
       </c>
       <c r="E40" s="3">
-        <v>149.89188389923331</v>
+        <v>146.2338103548575</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I40" s="3">
@@ -1388,17 +3740,17 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D41" s="3">
-        <v>55.281335433502257</v>
+        <v>54.462405413271242</v>
       </c>
       <c r="E41" s="3">
-        <v>140.73727272727271</v>
+        <v>135.55966259453169</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I41" s="3">
@@ -1410,17 +3762,17 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D42" s="3">
-        <v>54.485656759348032</v>
+        <v>54.450461292200238</v>
       </c>
       <c r="E42" s="3">
-        <v>146.27437568455639</v>
+        <v>142.83807446189641</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="I42" s="3">
@@ -1432,17 +3784,17 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D43" s="3">
-        <v>54.15623613203671</v>
+        <v>53.401331490104774</v>
       </c>
       <c r="E43" s="3">
-        <v>150.5310952902519</v>
+        <v>145.2778824898196</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="I43" s="3">
@@ -1454,17 +3806,17 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D44" s="3">
-        <v>53.809669908231747</v>
+        <v>53.111791327124557</v>
       </c>
       <c r="E44" s="3">
-        <v>143.680443592552</v>
+        <v>145.30566608493311</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I44" s="3">
@@ -1476,17 +3828,17 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D45" s="3">
-        <v>53.297362005204761</v>
+        <v>53.741455180442379</v>
       </c>
       <c r="E45" s="3">
-        <v>150.5702683461117</v>
+        <v>141.86838859802211</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I45" s="3">
@@ -1498,17 +3850,17 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D46" s="3">
-        <v>55.409305574578823</v>
+        <v>53.011992142025598</v>
       </c>
       <c r="E46" s="3">
-        <v>139.9791018619934</v>
+        <v>149.1353228621291</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="I46" s="3">
@@ -1520,17 +3872,17 @@
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="D47" s="3">
-        <v>53.933847418161882</v>
+        <v>53.11817956926658</v>
       </c>
       <c r="E47" s="3">
-        <v>144.6483625410734</v>
+        <v>145.5348981966259</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="I47" s="3">
@@ -1542,17 +3894,17 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D48" s="3">
-        <v>53.936604574715787</v>
+        <v>53.718982828870779</v>
       </c>
       <c r="E48" s="3">
-        <v>149.1498138006572</v>
+        <v>145.3188598022106</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="I48" s="3">
@@ -1562,19 +3914,19 @@
         <v>69.809624060150369</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D49" s="3">
-        <v>53.876227913984387</v>
+        <v>54.704611466821888</v>
       </c>
       <c r="E49" s="3">
-        <v>154.67331872946329</v>
+        <v>140.5257417102967</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="I49" s="3">
@@ -1584,19 +3936,19 @@
         <v>79.105288220551373</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D50" s="3">
-        <v>54.473872072318862</v>
+        <v>52.73953870779976</v>
       </c>
       <c r="E50" s="3">
-        <v>146.68242059145669</v>
+        <v>152.16924956369979</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I50" s="3">
@@ -1606,19 +3958,19 @@
         <v>74.056741854636599</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="D51" s="3">
-        <v>56.163641966853866</v>
+        <v>54.174311699650737</v>
       </c>
       <c r="E51" s="3">
-        <v>130.6130887185104</v>
+        <v>143.3077428737638</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="I51" s="3">
@@ -1628,19 +3980,19 @@
         <v>77.900476190476198</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D52" s="3">
-        <v>55.11714011779209</v>
+        <v>55.066319848661237</v>
       </c>
       <c r="E52" s="3">
-        <v>143.91588170865279</v>
+        <v>134.6283885980221</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="I52" s="3">
@@ -1650,19 +4002,19 @@
         <v>75.74562656641605</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="D53" s="3">
-        <v>54.78606629228873</v>
+        <v>54.428102444703143</v>
       </c>
       <c r="E53" s="3">
-        <v>142.34866922234389</v>
+        <v>141.18517161140201</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="I53" s="3">
@@ -1672,19 +4024,19 @@
         <v>78.602932330827073</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D54" s="3">
-        <v>55.61784687029175</v>
+        <v>54.216784051222362</v>
       </c>
       <c r="E54" s="3">
-        <v>144.2873384446878</v>
+        <v>138.86091913903431</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I54" s="3">
@@ -1694,17 +4046,17 @@
         <v>76.595513784461147</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="3">
         <f>AVERAGE(D5:D54)</f>
-        <v>54.559716860704015</v>
+        <v>53.942284254947616</v>
       </c>
       <c r="E56" s="3">
         <f>AVERAGE(E5:E54)</f>
-        <v>145.65360580503827</v>
+        <v>142.4843136707388</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>3</v>
@@ -1718,17 +4070,17 @@
         <v>75.015704010025061</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="3">
         <f>_xlfn.STDEV.S(D5:D54)</f>
-        <v>0.67045652390581412</v>
+        <v>0.59472663957758942</v>
       </c>
       <c r="E57" s="3">
         <f>_xlfn.STDEV.S(E5:E54)</f>
-        <v>4.8655786075045011</v>
+        <v>5.0890575678191672</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>4</v>
@@ -1742,8 +4094,39 @@
         <v>2.4059156138811759</v>
       </c>
     </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="3">
+        <v>53.942284254947616</v>
+      </c>
+      <c r="M61" s="3">
+        <v>27.707424686716795</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="3">
+        <v>142.4843136707388</v>
+      </c>
+      <c r="M62" s="3">
+        <v>75.015704010025061</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/migforecasting/underground/tests on superdataset/test-11.xlsx
+++ b/migforecasting/underground/tests on superdataset/test-11.xlsx
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2887,7 @@
         <v>1.3054860006770495E-2</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" ref="T10:T15" si="3">(Q10/R10-1) * 100</f>
+        <f t="shared" ref="T10:T14" si="3">(Q10/R10-1) * 100</f>
         <v>21.21116352390866</v>
       </c>
     </row>
